--- a/biology/Zoologie/Couleuvre_brune/Couleuvre_brune.xlsx
+++ b/biology/Zoologie/Couleuvre_brune/Couleuvre_brune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Storeria dekayi
-Storeria dekayi, la Couleuvre brune, est une espèce de serpents de la famille des Natricidae[1].
+Storeria dekayi, la Couleuvre brune, est une espèce de serpents de la famille des Natricidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'Est de l'Amérique du Nord[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'Est de l'Amérique du Nord :
 au Canada dans les provinces de l'Ontario et au Québec ;
 dans l'est des États-Unis dans le sud du Minnesota, dans l'Iowa, dans le sud-est du Nebraska, dans le Kansas, dans l'Oklahoma, dans l'est du Texas, dans le Missouri, dans l'Arkansas, en Louisiane, dans le Wisconsin, dans l'Illinois, dans le Michigan, dans l'Indiana, dans l'Ohio, dans le Kentucky, dans le Tennessee, dans le Mississippi, dans l'Alabama, en Géorgie, en Floride, en Caroline du Sud, en Caroline du Nord, en Virginie, en Virginie-Occidentale, en Pennsylvanie, dans le Delaware, dans le Maryland, dans le New Jersey, dans l'État de New York, dans le Connecticut, dans le Massachusetts, dans le Vermont, dans le Sud du New Hampshire et dans le Sud du Maine ;
 au Mexique ;
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est de couleur brune tirant parfois sur le gris. Sur son dos, il y a deux rangées de taches noires. Il peut arriver que ces taches soient si rapprochées qu'elles forment une ligne. Le ventre est soit rose, soit jaune pâle. Sa taille se situe entre 23 et 33 cm.
 C'est la plus rare des couleuvres du Québec, on la retrouve presque exclusivement dans la région montréalaise.
@@ -583,9 +599,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Storeria dekayi victa[2] a été élevée au rang d'espèce par Pyron, Hsieh, Lemmon, Lemmon et Hendry en 2016[3], dans le même temps les sous-espèces Storeria dekayi anomala[4], Storeria dekayi limnetes[5], Storeria dekayi temporalineata[6], Storeria dekayi texana[6], Storeria dekayi tropica[7] et Storeria dekayi wrightorum[6] ont été placées en synonymies avec Storeria dekayi.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Storeria dekayi victa a été élevée au rang d'espèce par Pyron, Hsieh, Lemmon, Lemmon et Hendry en 2016, dans le même temps les sous-espèces Storeria dekayi anomala, Storeria dekayi limnetes, Storeria dekayi temporalineata, Storeria dekayi texana, Storeria dekayi tropica et Storeria dekayi wrightorum ont été placées en synonymies avec Storeria dekayi.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste américain James Ellsworth De Kay (1792-1851)[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste américain James Ellsworth De Kay (1792-1851).
 </t>
         </is>
       </c>
@@ -645,7 +665,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Holbrook, 1839 : North American Herpetology; or Description of the Reptiles Inhabiting the United States, Second Edition, vol. 4 (texte intégral)</t>
         </is>
